--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Pouya\control quality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiralipour\Documents\control-quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833C352E-7585-4449-A3AD-1EFAC0AB7288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A36694-AD2C-43AD-8BE5-51175FC7132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{C4B8CA1D-4694-421C-BAC4-F499C67C708E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" firstSheet="1" activeTab="1" xr2:uid="{C4B8CA1D-4694-421C-BAC4-F499C67C708E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="NamedRange">Sheet1!$B$4:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
     <pivotCache cacheId="1" r:id="rId5"/>
@@ -28,6 +28,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -5864,7 +5873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4007C9B9-CB3A-42C9-AC09-B3BD3C5FF973}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
